--- a/data/pca/factorExposure/factorExposure_2015-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01970963484199342</v>
+        <v>0.01326240233151737</v>
       </c>
       <c r="C2">
-        <v>-0.03121196021006892</v>
+        <v>0.04526520963606154</v>
       </c>
       <c r="D2">
-        <v>0.1285470713208222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1389420636310956</v>
+      </c>
+      <c r="E2">
+        <v>-0.0027770648914488</v>
+      </c>
+      <c r="F2">
+        <v>0.002212028527254938</v>
+      </c>
+      <c r="G2">
+        <v>0.1052907597634351</v>
+      </c>
+      <c r="H2">
+        <v>0.04208715324040103</v>
+      </c>
+      <c r="I2">
+        <v>-0.06634181128236558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02151889262010539</v>
+        <v>-0.02124293708027281</v>
       </c>
       <c r="C3">
-        <v>-0.04568855851491784</v>
+        <v>0.02659581946958571</v>
       </c>
       <c r="D3">
-        <v>0.05019469711060299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.03939754899086724</v>
+      </c>
+      <c r="E3">
+        <v>-0.04266088531994762</v>
+      </c>
+      <c r="F3">
+        <v>0.02122601598329473</v>
+      </c>
+      <c r="G3">
+        <v>0.1093881646289654</v>
+      </c>
+      <c r="H3">
+        <v>0.03614137785487398</v>
+      </c>
+      <c r="I3">
+        <v>0.07522907542143692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03440361108665393</v>
+        <v>0.02376847148523321</v>
       </c>
       <c r="C4">
-        <v>-0.07359032016744245</v>
+        <v>0.09097437891712212</v>
       </c>
       <c r="D4">
-        <v>0.1437590908970188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1542148569276318</v>
+      </c>
+      <c r="E4">
+        <v>-0.02322473215204076</v>
+      </c>
+      <c r="F4">
+        <v>0.08029903163468999</v>
+      </c>
+      <c r="G4">
+        <v>-0.006005730547328166</v>
+      </c>
+      <c r="H4">
+        <v>0.04828018578523499</v>
+      </c>
+      <c r="I4">
+        <v>-0.0004170715472484038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02356832629957525</v>
+        <v>0.02303006632330468</v>
       </c>
       <c r="C6">
-        <v>-0.01945614248783358</v>
+        <v>0.03264528192871833</v>
       </c>
       <c r="D6">
-        <v>0.1581942769461276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1381047828195374</v>
+      </c>
+      <c r="E6">
+        <v>0.03046903786826611</v>
+      </c>
+      <c r="F6">
+        <v>0.05817207538581283</v>
+      </c>
+      <c r="G6">
+        <v>0.05163548850943402</v>
+      </c>
+      <c r="H6">
+        <v>0.0281972172861159</v>
+      </c>
+      <c r="I6">
+        <v>0.02215575585002468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01031995570032978</v>
+        <v>0.005886264815921988</v>
       </c>
       <c r="C7">
-        <v>-0.02870980886326289</v>
+        <v>0.03621434923829292</v>
       </c>
       <c r="D7">
-        <v>0.1184036879803159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09649382670037851</v>
+      </c>
+      <c r="E7">
+        <v>0.03963252818585589</v>
+      </c>
+      <c r="F7">
+        <v>0.01282990014948422</v>
+      </c>
+      <c r="G7">
+        <v>0.04478616918718887</v>
+      </c>
+      <c r="H7">
+        <v>0.05823562143769236</v>
+      </c>
+      <c r="I7">
+        <v>0.04734411998386299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002969523519815604</v>
+        <v>-0.004382769531770796</v>
       </c>
       <c r="C8">
-        <v>-0.03401864061428422</v>
+        <v>0.03959788418082996</v>
       </c>
       <c r="D8">
-        <v>0.0821019537503743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08203066644422448</v>
+      </c>
+      <c r="E8">
+        <v>0.01042880541846625</v>
+      </c>
+      <c r="F8">
+        <v>0.05001701550081094</v>
+      </c>
+      <c r="G8">
+        <v>0.08937722824516695</v>
+      </c>
+      <c r="H8">
+        <v>-0.007025078432289912</v>
+      </c>
+      <c r="I8">
+        <v>0.01957496355729097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02837338650208339</v>
+        <v>0.01727353175640571</v>
       </c>
       <c r="C9">
-        <v>-0.06878925776797708</v>
+        <v>0.08081386667002187</v>
       </c>
       <c r="D9">
-        <v>0.1335915326822631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1280699844022972</v>
+      </c>
+      <c r="E9">
+        <v>-0.01224348241107258</v>
+      </c>
+      <c r="F9">
+        <v>0.04745935435648085</v>
+      </c>
+      <c r="G9">
+        <v>-0.004847914337504072</v>
+      </c>
+      <c r="H9">
+        <v>0.05100239605267323</v>
+      </c>
+      <c r="I9">
+        <v>0.005104846582080071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1587836714922919</v>
+        <v>0.2136202068518355</v>
       </c>
       <c r="C10">
-        <v>0.1648363721168762</v>
+        <v>-0.1243252152483382</v>
       </c>
       <c r="D10">
-        <v>0.01344727373544091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01492126055735748</v>
+      </c>
+      <c r="E10">
+        <v>-0.02814300190285715</v>
+      </c>
+      <c r="F10">
+        <v>0.04850334058597983</v>
+      </c>
+      <c r="G10">
+        <v>-0.003244876748501931</v>
+      </c>
+      <c r="H10">
+        <v>-0.05936655960014021</v>
+      </c>
+      <c r="I10">
+        <v>0.08793772720543114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02173695623086996</v>
+        <v>0.01270567515556443</v>
       </c>
       <c r="C11">
-        <v>-0.04496789550412961</v>
+        <v>0.05363930416438221</v>
       </c>
       <c r="D11">
-        <v>0.05900544878619039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05117846131562297</v>
+      </c>
+      <c r="E11">
+        <v>0.01969698235574269</v>
+      </c>
+      <c r="F11">
+        <v>-0.01204290424683684</v>
+      </c>
+      <c r="G11">
+        <v>0.01263359447728315</v>
+      </c>
+      <c r="H11">
+        <v>0.04365498593520686</v>
+      </c>
+      <c r="I11">
+        <v>0.004141341977466723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0237692731982478</v>
+        <v>0.01388298098254495</v>
       </c>
       <c r="C12">
-        <v>-0.04293619130041387</v>
+        <v>0.05032811600002774</v>
       </c>
       <c r="D12">
-        <v>0.06960964515794903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05195435748489764</v>
+      </c>
+      <c r="E12">
+        <v>0.01529140492023043</v>
+      </c>
+      <c r="F12">
+        <v>-0.01502631626211214</v>
+      </c>
+      <c r="G12">
+        <v>0.008811239768986552</v>
+      </c>
+      <c r="H12">
+        <v>0.07149074752188617</v>
+      </c>
+      <c r="I12">
+        <v>0.01356485195253607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.000217879507121388</v>
+        <v>0.001446531509685432</v>
       </c>
       <c r="C13">
-        <v>-0.03137974731142248</v>
+        <v>0.04426683040555932</v>
       </c>
       <c r="D13">
-        <v>0.1563978782919817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1600496361404667</v>
+      </c>
+      <c r="E13">
+        <v>0.03800860121476937</v>
+      </c>
+      <c r="F13">
+        <v>0.04418232872870973</v>
+      </c>
+      <c r="G13">
+        <v>0.05640638319405527</v>
+      </c>
+      <c r="H13">
+        <v>0.0531126438278276</v>
+      </c>
+      <c r="I13">
+        <v>0.06289565302038111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003917073071417271</v>
+        <v>-0.00221540954784832</v>
       </c>
       <c r="C14">
-        <v>-0.02384316476124374</v>
+        <v>0.02798686295459345</v>
       </c>
       <c r="D14">
-        <v>0.1110060306165296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1065920276784894</v>
+      </c>
+      <c r="E14">
+        <v>0.01788323257859016</v>
+      </c>
+      <c r="F14">
+        <v>0.02006545488104141</v>
+      </c>
+      <c r="G14">
+        <v>0.05831003669977136</v>
+      </c>
+      <c r="H14">
+        <v>0.09861826413513233</v>
+      </c>
+      <c r="I14">
+        <v>0.006033023613020177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.004785375083549138</v>
+        <v>-0.001158644383283632</v>
       </c>
       <c r="C15">
-        <v>-0.00601024003972384</v>
+        <v>0.01637256567868587</v>
       </c>
       <c r="D15">
-        <v>0.01440986736376761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04389253375942079</v>
+      </c>
+      <c r="E15">
+        <v>0.002806654720306441</v>
+      </c>
+      <c r="F15">
+        <v>0.001790460892262838</v>
+      </c>
+      <c r="G15">
+        <v>0.02051870361190404</v>
+      </c>
+      <c r="H15">
+        <v>0.01060537951578457</v>
+      </c>
+      <c r="I15">
+        <v>-0.02430710312181927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02038985053637477</v>
+        <v>0.01324238641430474</v>
       </c>
       <c r="C16">
-        <v>-0.04181254223351138</v>
+        <v>0.0490799865697611</v>
       </c>
       <c r="D16">
-        <v>0.06713862210060502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05334918139168134</v>
+      </c>
+      <c r="E16">
+        <v>0.01907392535670827</v>
+      </c>
+      <c r="F16">
+        <v>-0.006315364361875314</v>
+      </c>
+      <c r="G16">
+        <v>0.007233275367058422</v>
+      </c>
+      <c r="H16">
+        <v>0.05260527519233894</v>
+      </c>
+      <c r="I16">
+        <v>0.009431675490850349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>7.252649169743607e-05</v>
+        <v>-0.002709954487745292</v>
       </c>
       <c r="C19">
-        <v>-0.02749140031121055</v>
+        <v>0.02200750965515239</v>
       </c>
       <c r="D19">
-        <v>0.1523696024404931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1055409576589563</v>
+      </c>
+      <c r="E19">
+        <v>-0.02066878192835966</v>
+      </c>
+      <c r="F19">
+        <v>0.01048300071892101</v>
+      </c>
+      <c r="G19">
+        <v>0.03592825537085898</v>
+      </c>
+      <c r="H19">
+        <v>0.06787946005173677</v>
+      </c>
+      <c r="I19">
+        <v>0.02758801282231747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00360990961896479</v>
+        <v>0.002983767015229027</v>
       </c>
       <c r="C20">
-        <v>-0.03305903018408395</v>
+        <v>0.03935388166453024</v>
       </c>
       <c r="D20">
-        <v>0.09939014848814409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1036539304311559</v>
+      </c>
+      <c r="E20">
+        <v>-0.004863251388339786</v>
+      </c>
+      <c r="F20">
+        <v>0.03131512993036283</v>
+      </c>
+      <c r="G20">
+        <v>0.03714067244292781</v>
+      </c>
+      <c r="H20">
+        <v>0.05979872967716719</v>
+      </c>
+      <c r="I20">
+        <v>0.01747055462184513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00411986566811035</v>
+        <v>0.0004280008756633718</v>
       </c>
       <c r="C21">
-        <v>-0.03836795760896229</v>
+        <v>0.0453862416054215</v>
       </c>
       <c r="D21">
-        <v>0.1827259406563002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1570395038326147</v>
+      </c>
+      <c r="E21">
+        <v>-0.01882381590240065</v>
+      </c>
+      <c r="F21">
+        <v>0.06331947557297038</v>
+      </c>
+      <c r="G21">
+        <v>0.06891366293254944</v>
+      </c>
+      <c r="H21">
+        <v>0.1426814332675999</v>
+      </c>
+      <c r="I21">
+        <v>0.06195965828942165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003286568982141722</v>
+        <v>-0.004902467969341929</v>
       </c>
       <c r="C22">
-        <v>-0.05433420487376804</v>
+        <v>0.06556994020801406</v>
       </c>
       <c r="D22">
-        <v>0.1728819356167526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2259320783190892</v>
+      </c>
+      <c r="E22">
+        <v>0.04206388608494632</v>
+      </c>
+      <c r="F22">
+        <v>0.02571891504381564</v>
+      </c>
+      <c r="G22">
+        <v>0.1323498106567143</v>
+      </c>
+      <c r="H22">
+        <v>-0.4755817661661592</v>
+      </c>
+      <c r="I22">
+        <v>-0.2629447320693756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003108490819666533</v>
+        <v>-0.004480905013049498</v>
       </c>
       <c r="C23">
-        <v>-0.05473787561114076</v>
+        <v>0.06642850640291413</v>
       </c>
       <c r="D23">
-        <v>0.1724538218947068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2266176795620705</v>
+      </c>
+      <c r="E23">
+        <v>0.03921731032400028</v>
+      </c>
+      <c r="F23">
+        <v>0.02459443036924596</v>
+      </c>
+      <c r="G23">
+        <v>0.1307777075981575</v>
+      </c>
+      <c r="H23">
+        <v>-0.4756654388393547</v>
+      </c>
+      <c r="I23">
+        <v>-0.2643652984176281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02667165634772571</v>
+        <v>0.01381134031040933</v>
       </c>
       <c r="C24">
-        <v>-0.05908515648309007</v>
+        <v>0.06476306869202098</v>
       </c>
       <c r="D24">
-        <v>0.07270001823067943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05646646201838853</v>
+      </c>
+      <c r="E24">
+        <v>0.01852196155433439</v>
+      </c>
+      <c r="F24">
+        <v>-0.003619190411768037</v>
+      </c>
+      <c r="G24">
+        <v>0.01812930375030155</v>
+      </c>
+      <c r="H24">
+        <v>0.0723298447633577</v>
+      </c>
+      <c r="I24">
+        <v>-8.659297277206436e-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0311329062272884</v>
+        <v>0.01851472708635864</v>
       </c>
       <c r="C25">
-        <v>-0.05144961464181441</v>
+        <v>0.06159623111664041</v>
       </c>
       <c r="D25">
-        <v>0.07159027428441039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05896553190397798</v>
+      </c>
+      <c r="E25">
+        <v>0.008142016324733969</v>
+      </c>
+      <c r="F25">
+        <v>-0.008133733429551367</v>
+      </c>
+      <c r="G25">
+        <v>0.006241720743073834</v>
+      </c>
+      <c r="H25">
+        <v>0.04581152217683222</v>
+      </c>
+      <c r="I25">
+        <v>0.008527996318826432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.002327177772247044</v>
+        <v>0.002094639326505057</v>
       </c>
       <c r="C26">
-        <v>-0.01375085795209715</v>
+        <v>0.0203094683321995</v>
       </c>
       <c r="D26">
-        <v>0.0712836370015157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06686628409469395</v>
+      </c>
+      <c r="E26">
+        <v>0.01427895441754152</v>
+      </c>
+      <c r="F26">
+        <v>0.02809611527434969</v>
+      </c>
+      <c r="G26">
+        <v>0.03342187652127354</v>
+      </c>
+      <c r="H26">
+        <v>0.06162763412553478</v>
+      </c>
+      <c r="I26">
+        <v>0.02982399562099288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2414370424102611</v>
+        <v>0.3069074770450014</v>
       </c>
       <c r="C28">
-        <v>0.2129792888196154</v>
+        <v>-0.1480022143819561</v>
       </c>
       <c r="D28">
-        <v>0.0159268640057916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004613532124548027</v>
+      </c>
+      <c r="E28">
+        <v>-0.04637249326230846</v>
+      </c>
+      <c r="F28">
+        <v>0.03689904063305223</v>
+      </c>
+      <c r="G28">
+        <v>-0.02573072874280934</v>
+      </c>
+      <c r="H28">
+        <v>-0.03435926197651606</v>
+      </c>
+      <c r="I28">
+        <v>0.06151982473631813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.003843098143864745</v>
+        <v>-0.001989296818107835</v>
       </c>
       <c r="C29">
-        <v>-0.02241031901352899</v>
+        <v>0.0279278624922924</v>
       </c>
       <c r="D29">
-        <v>0.1042461091470408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1053885198020165</v>
+      </c>
+      <c r="E29">
+        <v>0.0314965633320102</v>
+      </c>
+      <c r="F29">
+        <v>0.03114460526885999</v>
+      </c>
+      <c r="G29">
+        <v>0.04779891882645813</v>
+      </c>
+      <c r="H29">
+        <v>0.09847444171581532</v>
+      </c>
+      <c r="I29">
+        <v>0.02001329027467712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01554762661375633</v>
+        <v>0.0123510362279738</v>
       </c>
       <c r="C30">
-        <v>-0.06454411115341636</v>
+        <v>0.08014911742493645</v>
       </c>
       <c r="D30">
-        <v>0.1713919420025694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1687879129285205</v>
+      </c>
+      <c r="E30">
+        <v>0.03227483723993833</v>
+      </c>
+      <c r="F30">
+        <v>0.0385640300986038</v>
+      </c>
+      <c r="G30">
+        <v>0.03912520402642599</v>
+      </c>
+      <c r="H30">
+        <v>0.03586267169599472</v>
+      </c>
+      <c r="I30">
+        <v>-0.04369138982878074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03929183146234477</v>
+        <v>0.01829565170217069</v>
       </c>
       <c r="C31">
-        <v>-0.0843349791311636</v>
+        <v>0.08919284766230591</v>
       </c>
       <c r="D31">
-        <v>0.07602714384646761</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04878413724054934</v>
+      </c>
+      <c r="E31">
+        <v>0.005453496671674592</v>
+      </c>
+      <c r="F31">
+        <v>0.0216273535745151</v>
+      </c>
+      <c r="G31">
+        <v>0.02765169020525261</v>
+      </c>
+      <c r="H31">
+        <v>0.03658488019752499</v>
+      </c>
+      <c r="I31">
+        <v>0.05801474775057097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02449921618908714</v>
+        <v>0.01948177498870298</v>
       </c>
       <c r="C32">
-        <v>-0.03151195108443312</v>
+        <v>0.03872715463323978</v>
       </c>
       <c r="D32">
-        <v>0.1218855731294643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1253568673020092</v>
+      </c>
+      <c r="E32">
+        <v>0.0004430405730455572</v>
+      </c>
+      <c r="F32">
+        <v>0.04426566123036272</v>
+      </c>
+      <c r="G32">
+        <v>0.02915779874119585</v>
+      </c>
+      <c r="H32">
+        <v>0.02068133862418904</v>
+      </c>
+      <c r="I32">
+        <v>0.07449280898084644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01367624508446665</v>
+        <v>0.009969036007033898</v>
       </c>
       <c r="C33">
-        <v>-0.04499438309113616</v>
+        <v>0.05539877802444643</v>
       </c>
       <c r="D33">
-        <v>0.1559997812241416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1370953012144671</v>
+      </c>
+      <c r="E33">
+        <v>0.009756194291536818</v>
+      </c>
+      <c r="F33">
+        <v>0.0240292150864609</v>
+      </c>
+      <c r="G33">
+        <v>0.02866068575578384</v>
+      </c>
+      <c r="H33">
+        <v>0.05622966671244847</v>
+      </c>
+      <c r="I33">
+        <v>0.009206061575264502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02701289134224956</v>
+        <v>0.01339151740453415</v>
       </c>
       <c r="C34">
-        <v>-0.06145411108679694</v>
+        <v>0.06524788300582832</v>
       </c>
       <c r="D34">
-        <v>0.06094757111748781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04052215413603256</v>
+      </c>
+      <c r="E34">
+        <v>0.03046584158415612</v>
+      </c>
+      <c r="F34">
+        <v>-0.03513361825898108</v>
+      </c>
+      <c r="G34">
+        <v>0.01890912451140382</v>
+      </c>
+      <c r="H34">
+        <v>0.05918666325875852</v>
+      </c>
+      <c r="I34">
+        <v>0.02259747683307792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001064192050044862</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003560622002896418</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01305861569938237</v>
+      </c>
+      <c r="E35">
+        <v>0.00168635262635665</v>
+      </c>
+      <c r="F35">
+        <v>-0.001680058811381185</v>
+      </c>
+      <c r="G35">
+        <v>5.179719529990847e-05</v>
+      </c>
+      <c r="H35">
+        <v>0.006608532312804067</v>
+      </c>
+      <c r="I35">
+        <v>-0.002483789951182367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008317313962038848</v>
+        <v>0.009164860937767683</v>
       </c>
       <c r="C36">
-        <v>-0.005256938715372149</v>
+        <v>0.01631285562323669</v>
       </c>
       <c r="D36">
-        <v>0.09343315580040845</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08366015454104293</v>
+      </c>
+      <c r="E36">
+        <v>0.00373303437355524</v>
+      </c>
+      <c r="F36">
+        <v>0.03304312002596338</v>
+      </c>
+      <c r="G36">
+        <v>0.01839638996350429</v>
+      </c>
+      <c r="H36">
+        <v>0.05343524754132814</v>
+      </c>
+      <c r="I36">
+        <v>0.00893231610220916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00920658152830719</v>
+        <v>0.01589145671631126</v>
       </c>
       <c r="C38">
-        <v>-0.01230804521750611</v>
+        <v>0.01891129667692223</v>
       </c>
       <c r="D38">
-        <v>0.08276324680118288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08341698707911499</v>
+      </c>
+      <c r="E38">
+        <v>-0.01482835943303948</v>
+      </c>
+      <c r="F38">
+        <v>-0.01704922552580602</v>
+      </c>
+      <c r="G38">
+        <v>0.02803666353678353</v>
+      </c>
+      <c r="H38">
+        <v>0.04011279126233389</v>
+      </c>
+      <c r="I38">
+        <v>-0.008085982344764948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02469243115322416</v>
+        <v>0.01277874503041711</v>
       </c>
       <c r="C39">
-        <v>-0.05941029443503125</v>
+        <v>0.07548974741493031</v>
       </c>
       <c r="D39">
-        <v>0.1118772242172772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1052625779123351</v>
+      </c>
+      <c r="E39">
+        <v>0.04298236768581364</v>
+      </c>
+      <c r="F39">
+        <v>-0.01166962888146138</v>
+      </c>
+      <c r="G39">
+        <v>0.01869930319265845</v>
+      </c>
+      <c r="H39">
+        <v>0.0922964736347698</v>
+      </c>
+      <c r="I39">
+        <v>-0.04048801619605689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.009410608975412215</v>
+        <v>0.003757189455850326</v>
       </c>
       <c r="C40">
-        <v>-0.04380598656648982</v>
+        <v>0.04123977053127118</v>
       </c>
       <c r="D40">
-        <v>0.1213128037160768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1025093939433166</v>
+      </c>
+      <c r="E40">
+        <v>0.01231163847196143</v>
+      </c>
+      <c r="F40">
+        <v>0.03334231055137209</v>
+      </c>
+      <c r="G40">
+        <v>0.2443722220998071</v>
+      </c>
+      <c r="H40">
+        <v>0.0268704959862925</v>
+      </c>
+      <c r="I40">
+        <v>0.09756425192093936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.02178132902558079</v>
+        <v>0.0202270915802253</v>
       </c>
       <c r="C41">
-        <v>-0.002119128835001214</v>
+        <v>0.01278293250429595</v>
       </c>
       <c r="D41">
-        <v>0.07996626619209554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05784653293641104</v>
+      </c>
+      <c r="E41">
+        <v>-0.01915658505586117</v>
+      </c>
+      <c r="F41">
+        <v>0.01530294913192009</v>
+      </c>
+      <c r="G41">
+        <v>0.02860874098212893</v>
+      </c>
+      <c r="H41">
+        <v>0.02814253636223555</v>
+      </c>
+      <c r="I41">
+        <v>0.04827089407288958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01397465368797402</v>
+        <v>0.01178676311487897</v>
       </c>
       <c r="C43">
-        <v>-0.0109166018623596</v>
+        <v>0.01746196465040755</v>
       </c>
       <c r="D43">
-        <v>0.09828851549793764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07193927569240362</v>
+      </c>
+      <c r="E43">
+        <v>-0.004949194250995926</v>
+      </c>
+      <c r="F43">
+        <v>0.01197203240966601</v>
+      </c>
+      <c r="G43">
+        <v>0.03507087171680321</v>
+      </c>
+      <c r="H43">
+        <v>0.05669156157877672</v>
+      </c>
+      <c r="I43">
+        <v>0.04542631757273884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0001231021558587132</v>
+        <v>0.002149687481448475</v>
       </c>
       <c r="C44">
-        <v>-0.04051194387864217</v>
+        <v>0.04358018232253329</v>
       </c>
       <c r="D44">
-        <v>0.1016615974593353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1148890211147768</v>
+      </c>
+      <c r="E44">
+        <v>-0.0004165428217954878</v>
+      </c>
+      <c r="F44">
+        <v>0.02411957290742568</v>
+      </c>
+      <c r="G44">
+        <v>0.03448485174071445</v>
+      </c>
+      <c r="H44">
+        <v>0.04831606053230307</v>
+      </c>
+      <c r="I44">
+        <v>-0.0414489707114245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006920843603104123</v>
+        <v>0.00137929274790507</v>
       </c>
       <c r="C46">
-        <v>-0.02935125152540842</v>
+        <v>0.03509961412986531</v>
       </c>
       <c r="D46">
-        <v>0.1125252812741637</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0974217042816721</v>
+      </c>
+      <c r="E46">
+        <v>0.01715923324234349</v>
+      </c>
+      <c r="F46">
+        <v>0.02403400025334165</v>
+      </c>
+      <c r="G46">
+        <v>0.04461261044674297</v>
+      </c>
+      <c r="H46">
+        <v>0.1101566312409082</v>
+      </c>
+      <c r="I46">
+        <v>0.02527168191642008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07851264371093288</v>
+        <v>0.04719621084589828</v>
       </c>
       <c r="C47">
-        <v>-0.1045602736970826</v>
+        <v>0.1177204472889038</v>
       </c>
       <c r="D47">
-        <v>0.06108563307800356</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03206899350651785</v>
+      </c>
+      <c r="E47">
+        <v>-0.01103240832442623</v>
+      </c>
+      <c r="F47">
+        <v>-0.001278146263813917</v>
+      </c>
+      <c r="G47">
+        <v>-0.01755082667328264</v>
+      </c>
+      <c r="H47">
+        <v>0.03583350888578813</v>
+      </c>
+      <c r="I47">
+        <v>0.1148805481271703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.003408650315219329</v>
+        <v>0.003904402867593238</v>
       </c>
       <c r="C48">
-        <v>-0.01841815339322498</v>
+        <v>0.02510666509101855</v>
       </c>
       <c r="D48">
-        <v>0.0910494963564554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08704032417264239</v>
+      </c>
+      <c r="E48">
+        <v>-0.01499942463587727</v>
+      </c>
+      <c r="F48">
+        <v>0.03713040678687868</v>
+      </c>
+      <c r="G48">
+        <v>0.03793049517274164</v>
+      </c>
+      <c r="H48">
+        <v>0.0728221040638794</v>
+      </c>
+      <c r="I48">
+        <v>0.005867982188236581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03625870705538149</v>
+        <v>0.01905429341474031</v>
       </c>
       <c r="C50">
-        <v>-0.06629365914756415</v>
+        <v>0.07452161632342347</v>
       </c>
       <c r="D50">
-        <v>0.07881730537321271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05919174485194562</v>
+      </c>
+      <c r="E50">
+        <v>0.0006735824970989753</v>
+      </c>
+      <c r="F50">
+        <v>0.01145921420510063</v>
+      </c>
+      <c r="G50">
+        <v>0.0400518549445787</v>
+      </c>
+      <c r="H50">
+        <v>0.01751044022037202</v>
+      </c>
+      <c r="I50">
+        <v>0.09452888510124206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002541218214679563</v>
+        <v>0.001998289351452538</v>
       </c>
       <c r="C51">
-        <v>-0.0131008451995546</v>
+        <v>0.01984867722082429</v>
       </c>
       <c r="D51">
-        <v>0.07880958907587007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08168674783133864</v>
+      </c>
+      <c r="E51">
+        <v>0.02765432050719718</v>
+      </c>
+      <c r="F51">
+        <v>0.03898253159285544</v>
+      </c>
+      <c r="G51">
+        <v>0.05504651466269676</v>
+      </c>
+      <c r="H51">
+        <v>0.04970669911779097</v>
+      </c>
+      <c r="I51">
+        <v>0.01647160997233653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09535216439673964</v>
+        <v>0.06471201650307572</v>
       </c>
       <c r="C53">
-        <v>-0.125995757892655</v>
+        <v>0.1479832472046084</v>
       </c>
       <c r="D53">
-        <v>0.01817282219284747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005212700169046633</v>
+      </c>
+      <c r="E53">
+        <v>-0.04768359615182627</v>
+      </c>
+      <c r="F53">
+        <v>0.06968819976037004</v>
+      </c>
+      <c r="G53">
+        <v>0.03295271124137575</v>
+      </c>
+      <c r="H53">
+        <v>0.001861398791031995</v>
+      </c>
+      <c r="I53">
+        <v>0.08159506803809205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01206107730434773</v>
+        <v>0.008605828247225134</v>
       </c>
       <c r="C54">
-        <v>-0.02350444848645955</v>
+        <v>0.03452578370733896</v>
       </c>
       <c r="D54">
-        <v>0.1157479437155666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09654127583031907</v>
+      </c>
+      <c r="E54">
+        <v>0.007071864719011307</v>
+      </c>
+      <c r="F54">
+        <v>0.003129176739020404</v>
+      </c>
+      <c r="G54">
+        <v>0.05947995242518405</v>
+      </c>
+      <c r="H54">
+        <v>0.06647380085593058</v>
+      </c>
+      <c r="I54">
+        <v>0.04886910991484519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0882048498527202</v>
+        <v>0.05620111632234031</v>
       </c>
       <c r="C55">
-        <v>-0.1049099950451672</v>
+        <v>0.1238310690459263</v>
       </c>
       <c r="D55">
-        <v>0.004691257650557434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008263100526477198</v>
+      </c>
+      <c r="E55">
+        <v>-0.008588813893021314</v>
+      </c>
+      <c r="F55">
+        <v>0.03554840239736921</v>
+      </c>
+      <c r="G55">
+        <v>0.04552801505129036</v>
+      </c>
+      <c r="H55">
+        <v>-0.01098695103372895</v>
+      </c>
+      <c r="I55">
+        <v>0.06734686375798037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1221577103481923</v>
+        <v>0.07854264096905796</v>
       </c>
       <c r="C56">
-        <v>-0.1379394270593344</v>
+        <v>0.1732402285681084</v>
       </c>
       <c r="D56">
-        <v>0.00162436411337371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01130886752920638</v>
+      </c>
+      <c r="E56">
+        <v>-0.03899012852854006</v>
+      </c>
+      <c r="F56">
+        <v>0.03268449801302903</v>
+      </c>
+      <c r="G56">
+        <v>0.05903787480809289</v>
+      </c>
+      <c r="H56">
+        <v>-0.02695658836503479</v>
+      </c>
+      <c r="I56">
+        <v>0.06842938729649851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02475478860089681</v>
+        <v>-0.01157236203682026</v>
       </c>
       <c r="C58">
-        <v>-0.02939830002126865</v>
+        <v>0.0458878467269439</v>
       </c>
       <c r="D58">
-        <v>0.2223327185644348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2863012629973863</v>
+      </c>
+      <c r="E58">
+        <v>-0.04138112038219881</v>
+      </c>
+      <c r="F58">
+        <v>0.09253606197402407</v>
+      </c>
+      <c r="G58">
+        <v>0.07868203226925034</v>
+      </c>
+      <c r="H58">
+        <v>-0.1469897238922283</v>
+      </c>
+      <c r="I58">
+        <v>-0.05593249531116703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1712354452625617</v>
+        <v>0.2262949502064465</v>
       </c>
       <c r="C59">
-        <v>0.1457792579027928</v>
+        <v>-0.0966947399865659</v>
       </c>
       <c r="D59">
-        <v>0.05136586424860549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0650080852645136</v>
+      </c>
+      <c r="E59">
+        <v>-0.03677182768143661</v>
+      </c>
+      <c r="F59">
+        <v>0.007417091516098347</v>
+      </c>
+      <c r="G59">
+        <v>-0.003906502751379188</v>
+      </c>
+      <c r="H59">
+        <v>-0.01846432357403626</v>
+      </c>
+      <c r="I59">
+        <v>-0.005172222829916021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2037408085551183</v>
+        <v>0.1668252486103913</v>
       </c>
       <c r="C60">
-        <v>-0.1036935931898278</v>
+        <v>0.1598655612324137</v>
       </c>
       <c r="D60">
-        <v>0.1456322852010795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07908853303120712</v>
+      </c>
+      <c r="E60">
+        <v>0.2697850946259645</v>
+      </c>
+      <c r="F60">
+        <v>-0.164711257342442</v>
+      </c>
+      <c r="G60">
+        <v>-0.2580669058373529</v>
+      </c>
+      <c r="H60">
+        <v>-0.1212987810953235</v>
+      </c>
+      <c r="I60">
+        <v>-0.02634446349330657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03144773801066682</v>
+        <v>0.01772257975143528</v>
       </c>
       <c r="C61">
-        <v>-0.05889750830631954</v>
+        <v>0.07120135106895042</v>
       </c>
       <c r="D61">
-        <v>0.1131399934137109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08865372632799839</v>
+      </c>
+      <c r="E61">
+        <v>0.03091967572482746</v>
+      </c>
+      <c r="F61">
+        <v>-0.01499376298936721</v>
+      </c>
+      <c r="G61">
+        <v>0.008547283826928299</v>
+      </c>
+      <c r="H61">
+        <v>0.09180284146333062</v>
+      </c>
+      <c r="I61">
+        <v>0.02292514482733295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007886374379703336</v>
+        <v>0.004555954245489984</v>
       </c>
       <c r="C63">
-        <v>-0.02599258607167142</v>
+        <v>0.03519423808697481</v>
       </c>
       <c r="D63">
-        <v>0.09348902138403159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07721467570717337</v>
+      </c>
+      <c r="E63">
+        <v>0.02206497488922675</v>
+      </c>
+      <c r="F63">
+        <v>0.01887064844523389</v>
+      </c>
+      <c r="G63">
+        <v>0.02636189457968637</v>
+      </c>
+      <c r="H63">
+        <v>0.05129809955039707</v>
+      </c>
+      <c r="I63">
+        <v>0.01191843690581167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0510161925250599</v>
+        <v>0.02673458098414528</v>
       </c>
       <c r="C64">
-        <v>-0.08410696346941293</v>
+        <v>0.09627036123304383</v>
       </c>
       <c r="D64">
-        <v>0.06116396968079175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04948020783179415</v>
+      </c>
+      <c r="E64">
+        <v>0.02188626317141119</v>
+      </c>
+      <c r="F64">
+        <v>0.03352122810170775</v>
+      </c>
+      <c r="G64">
+        <v>-0.02091171694378012</v>
+      </c>
+      <c r="H64">
+        <v>0.1194606869321928</v>
+      </c>
+      <c r="I64">
+        <v>0.01015147527794264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02287710266891023</v>
+        <v>0.01652079546614758</v>
       </c>
       <c r="C65">
-        <v>-0.02056763854456717</v>
+        <v>0.03816544044348471</v>
       </c>
       <c r="D65">
-        <v>0.1218337775472411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.109604103959873</v>
+      </c>
+      <c r="E65">
+        <v>0.03677843276179814</v>
+      </c>
+      <c r="F65">
+        <v>0.01332339282058723</v>
+      </c>
+      <c r="G65">
+        <v>0.01584258978116963</v>
+      </c>
+      <c r="H65">
+        <v>0.0117291756519522</v>
+      </c>
+      <c r="I65">
+        <v>0.007138766745909885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0265448770200541</v>
+        <v>0.01282744772305621</v>
       </c>
       <c r="C66">
-        <v>-0.06720150958289524</v>
+        <v>0.08801995428379548</v>
       </c>
       <c r="D66">
-        <v>0.1255048557527268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1330422957667612</v>
+      </c>
+      <c r="E66">
+        <v>0.03535064320717375</v>
+      </c>
+      <c r="F66">
+        <v>-0.02083544995755761</v>
+      </c>
+      <c r="G66">
+        <v>0.01217613822383889</v>
+      </c>
+      <c r="H66">
+        <v>0.05529965359919634</v>
+      </c>
+      <c r="I66">
+        <v>-0.04699279720589517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03097775339393433</v>
+        <v>0.02943970345187984</v>
       </c>
       <c r="C67">
-        <v>-0.02315563078639175</v>
+        <v>0.03163185148052002</v>
       </c>
       <c r="D67">
-        <v>0.03903762809287082</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0324921461328885</v>
+      </c>
+      <c r="E67">
+        <v>0.0007288217677681613</v>
+      </c>
+      <c r="F67">
+        <v>-0.03421041472188771</v>
+      </c>
+      <c r="G67">
+        <v>0.02371237678603517</v>
+      </c>
+      <c r="H67">
+        <v>0.05194485771631088</v>
+      </c>
+      <c r="I67">
+        <v>-0.006590716952124672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2122180121217674</v>
+        <v>0.2590779708763555</v>
       </c>
       <c r="C68">
-        <v>0.1656220058325647</v>
+        <v>-0.1023044868067254</v>
       </c>
       <c r="D68">
-        <v>0.02908468267064961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03236926535301015</v>
+      </c>
+      <c r="E68">
+        <v>-0.00232647055971596</v>
+      </c>
+      <c r="F68">
+        <v>0.02581767617541507</v>
+      </c>
+      <c r="G68">
+        <v>0.03787545872776472</v>
+      </c>
+      <c r="H68">
+        <v>-0.04949482538445574</v>
+      </c>
+      <c r="I68">
+        <v>0.03675849465731236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06497500356205635</v>
+        <v>0.03578666369343322</v>
       </c>
       <c r="C69">
-        <v>-0.1133735992536275</v>
+        <v>0.1190024329592486</v>
       </c>
       <c r="D69">
-        <v>0.09040823274769723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04824309738056441</v>
+      </c>
+      <c r="E69">
+        <v>0.006732603863449001</v>
+      </c>
+      <c r="F69">
+        <v>-0.006720821967676202</v>
+      </c>
+      <c r="G69">
+        <v>-0.007523178157651768</v>
+      </c>
+      <c r="H69">
+        <v>0.0401847718805255</v>
+      </c>
+      <c r="I69">
+        <v>0.0808138949691433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2071607334013749</v>
+        <v>0.2549745113927953</v>
       </c>
       <c r="C71">
-        <v>0.1766385456647288</v>
+        <v>-0.1160416920166357</v>
       </c>
       <c r="D71">
-        <v>0.03392618374919937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03121608846882657</v>
+      </c>
+      <c r="E71">
+        <v>-0.0122937330626451</v>
+      </c>
+      <c r="F71">
+        <v>0.03369388660989772</v>
+      </c>
+      <c r="G71">
+        <v>0.05932361708982489</v>
+      </c>
+      <c r="H71">
+        <v>-0.01556279703054534</v>
+      </c>
+      <c r="I71">
+        <v>0.132569698093651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1026114127370047</v>
+        <v>0.0691420191784566</v>
       </c>
       <c r="C72">
-        <v>-0.07876152509150355</v>
+        <v>0.1163613569134599</v>
       </c>
       <c r="D72">
-        <v>0.08488886679277853</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06976340863784951</v>
+      </c>
+      <c r="E72">
+        <v>0.08750307554544656</v>
+      </c>
+      <c r="F72">
+        <v>-0.002919578941316246</v>
+      </c>
+      <c r="G72">
+        <v>0.009595991913762343</v>
+      </c>
+      <c r="H72">
+        <v>0.05313996539813176</v>
+      </c>
+      <c r="I72">
+        <v>-0.004498800009854749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1902054816197661</v>
+        <v>0.1522209677598218</v>
       </c>
       <c r="C73">
-        <v>-0.06370314780441801</v>
+        <v>0.1322702054184047</v>
       </c>
       <c r="D73">
-        <v>0.2039418904604332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07560959227672341</v>
+      </c>
+      <c r="E73">
+        <v>0.4556530109695878</v>
+      </c>
+      <c r="F73">
+        <v>-0.244237355644833</v>
+      </c>
+      <c r="G73">
+        <v>-0.3948528479374278</v>
+      </c>
+      <c r="H73">
+        <v>-0.01913805952430008</v>
+      </c>
+      <c r="I73">
+        <v>0.03233085745070859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.0967713177372012</v>
+        <v>0.06078469419342872</v>
       </c>
       <c r="C74">
-        <v>-0.1091383595097561</v>
+        <v>0.1306402561271512</v>
       </c>
       <c r="D74">
-        <v>-0.02009429414824438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03113693709545633</v>
+      </c>
+      <c r="E74">
+        <v>-0.02591750843296488</v>
+      </c>
+      <c r="F74">
+        <v>0.06403713916164713</v>
+      </c>
+      <c r="G74">
+        <v>0.008400995977586206</v>
+      </c>
+      <c r="H74">
+        <v>-0.02316064051441655</v>
+      </c>
+      <c r="I74">
+        <v>0.08422486356039753</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2441094502784439</v>
+        <v>0.1650541931431554</v>
       </c>
       <c r="C75">
-        <v>-0.1974753429077553</v>
+        <v>0.2549963379806995</v>
       </c>
       <c r="D75">
-        <v>-0.1023986158631512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1247428294042239</v>
+      </c>
+      <c r="E75">
+        <v>-0.08337338178766358</v>
+      </c>
+      <c r="F75">
+        <v>-0.02547964603991493</v>
+      </c>
+      <c r="G75">
+        <v>0.06055813877723287</v>
+      </c>
+      <c r="H75">
+        <v>-0.02483266678194558</v>
+      </c>
+      <c r="I75">
+        <v>0.06921797075255232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1340494428792444</v>
+        <v>0.08564287384141506</v>
       </c>
       <c r="C76">
-        <v>-0.1397630138483664</v>
+        <v>0.1704223809795473</v>
       </c>
       <c r="D76">
-        <v>0.007573312590547197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01652572639745496</v>
+      </c>
+      <c r="E76">
+        <v>-0.03815211561060775</v>
+      </c>
+      <c r="F76">
+        <v>0.01865873360869156</v>
+      </c>
+      <c r="G76">
+        <v>0.05270571882401745</v>
+      </c>
+      <c r="H76">
+        <v>0.005358423731710724</v>
+      </c>
+      <c r="I76">
+        <v>0.06272380111705692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02499826367602341</v>
+        <v>0.03330092696884319</v>
       </c>
       <c r="C77">
-        <v>-0.08155593594243778</v>
+        <v>0.09367338130908082</v>
       </c>
       <c r="D77">
-        <v>0.06082637514995876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2337260952718879</v>
+      </c>
+      <c r="E77">
+        <v>-0.6891931550757423</v>
+      </c>
+      <c r="F77">
+        <v>-0.4132262797150043</v>
+      </c>
+      <c r="G77">
+        <v>-0.3286762765174264</v>
+      </c>
+      <c r="H77">
+        <v>-0.2172238527987284</v>
+      </c>
+      <c r="I77">
+        <v>0.166936702847115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02444017383234357</v>
+        <v>0.02023246902932724</v>
       </c>
       <c r="C78">
-        <v>-0.06553391591500035</v>
+        <v>0.07852221442935661</v>
       </c>
       <c r="D78">
-        <v>0.1514545731907792</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1405993565386924</v>
+      </c>
+      <c r="E78">
+        <v>0.04467049192460845</v>
+      </c>
+      <c r="F78">
+        <v>0.03091097592591114</v>
+      </c>
+      <c r="G78">
+        <v>-0.007167685092686524</v>
+      </c>
+      <c r="H78">
+        <v>0.01973832315474019</v>
+      </c>
+      <c r="I78">
+        <v>-0.0641073473363888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.06636764403421316</v>
+        <v>0.04226331249302187</v>
       </c>
       <c r="C79">
-        <v>-0.1373536230824549</v>
+        <v>0.1555762681402708</v>
       </c>
       <c r="D79">
-        <v>-0.09004660282938322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03779640999286261</v>
+      </c>
+      <c r="E79">
+        <v>-0.156126576907395</v>
+      </c>
+      <c r="F79">
+        <v>0.7549602772229204</v>
+      </c>
+      <c r="G79">
+        <v>-0.5176132435126711</v>
+      </c>
+      <c r="H79">
+        <v>-0.05883469177302805</v>
+      </c>
+      <c r="I79">
+        <v>-0.1229030805350151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009933080557169615</v>
+        <v>0.003829765320246466</v>
       </c>
       <c r="C80">
-        <v>-0.0563120708563094</v>
+        <v>0.0556970266293992</v>
       </c>
       <c r="D80">
-        <v>0.03531813253160353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03506670816395334</v>
+      </c>
+      <c r="E80">
+        <v>0.01424399045520331</v>
+      </c>
+      <c r="F80">
+        <v>0.01526495948932328</v>
+      </c>
+      <c r="G80">
+        <v>0.06907130658801315</v>
+      </c>
+      <c r="H80">
+        <v>0.004935343263388775</v>
+      </c>
+      <c r="I80">
+        <v>0.006094295738044851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.122021436734266</v>
+        <v>0.0724039117227154</v>
       </c>
       <c r="C81">
-        <v>-0.1440329946482559</v>
+        <v>0.1666967731611382</v>
       </c>
       <c r="D81">
-        <v>-0.07174483598799036</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07935875661182719</v>
+      </c>
+      <c r="E81">
+        <v>-0.07802263519388491</v>
+      </c>
+      <c r="F81">
+        <v>0.05279013199958448</v>
+      </c>
+      <c r="G81">
+        <v>0.07545480488045439</v>
+      </c>
+      <c r="H81">
+        <v>0.04089515685770381</v>
+      </c>
+      <c r="I81">
+        <v>0.09950539525855441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.234132254571246</v>
+        <v>0.134682779545012</v>
       </c>
       <c r="C82">
-        <v>-0.2910885413253006</v>
+        <v>0.3100027025610673</v>
       </c>
       <c r="D82">
-        <v>-0.2236488866173381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2238447527897734</v>
+      </c>
+      <c r="E82">
+        <v>-0.04669043886616456</v>
+      </c>
+      <c r="F82">
+        <v>-0.08284644428327496</v>
+      </c>
+      <c r="G82">
+        <v>0.088600404002383</v>
+      </c>
+      <c r="H82">
+        <v>0.05058241116139998</v>
+      </c>
+      <c r="I82">
+        <v>0.06693780999639072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01207810788182885</v>
+        <v>-0.0006474488450563167</v>
       </c>
       <c r="C83">
-        <v>-0.06580556583736029</v>
+        <v>0.05793009826003055</v>
       </c>
       <c r="D83">
-        <v>0.05098794697329342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.06078475617612124</v>
+      </c>
+      <c r="E83">
+        <v>-0.09291950919586028</v>
+      </c>
+      <c r="F83">
+        <v>-0.02369089779794279</v>
+      </c>
+      <c r="G83">
+        <v>0.04005747240821329</v>
+      </c>
+      <c r="H83">
+        <v>0.06387402808284352</v>
+      </c>
+      <c r="I83">
+        <v>-0.05784266333680722</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001280615959164892</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01342285647279747</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03315999138895736</v>
+      </c>
+      <c r="E84">
+        <v>-0.007512206428384955</v>
+      </c>
+      <c r="F84">
+        <v>0.01783726775184801</v>
+      </c>
+      <c r="G84">
+        <v>0.03250785530114737</v>
+      </c>
+      <c r="H84">
+        <v>-0.009344405675587085</v>
+      </c>
+      <c r="I84">
+        <v>-0.03488758724338523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1524349437916427</v>
+        <v>0.0952402194208803</v>
       </c>
       <c r="C85">
-        <v>-0.1443331345510781</v>
+        <v>0.1878831152550587</v>
       </c>
       <c r="D85">
-        <v>-0.05480463485337379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08976310866942236</v>
+      </c>
+      <c r="E85">
+        <v>-0.003973542150078484</v>
+      </c>
+      <c r="F85">
+        <v>0.07933197760748287</v>
+      </c>
+      <c r="G85">
+        <v>0.01816640982648755</v>
+      </c>
+      <c r="H85">
+        <v>-0.01686525049179686</v>
+      </c>
+      <c r="I85">
+        <v>0.07677520281317088</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.009878061424728444</v>
+        <v>0.009716746300957559</v>
       </c>
       <c r="C86">
-        <v>-0.02850416105163425</v>
+        <v>0.03126186353650811</v>
       </c>
       <c r="D86">
-        <v>0.09623339499267286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1105061425388951</v>
+      </c>
+      <c r="E86">
+        <v>-0.04531311257704299</v>
+      </c>
+      <c r="F86">
+        <v>-0.01683540908440963</v>
+      </c>
+      <c r="G86">
+        <v>0.02115128900974816</v>
+      </c>
+      <c r="H86">
+        <v>0.01215401455375335</v>
+      </c>
+      <c r="I86">
+        <v>0.09037715104978739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0191550133960088</v>
+        <v>0.01940756065816853</v>
       </c>
       <c r="C87">
-        <v>-0.0270534785547886</v>
+        <v>0.04545450739163872</v>
       </c>
       <c r="D87">
-        <v>0.1290419976312082</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1486628932997328</v>
+      </c>
+      <c r="E87">
+        <v>-0.01490110751520187</v>
+      </c>
+      <c r="F87">
+        <v>0.03480736851606053</v>
+      </c>
+      <c r="G87">
+        <v>0.05453389450983683</v>
+      </c>
+      <c r="H87">
+        <v>0.0212683072321846</v>
+      </c>
+      <c r="I87">
+        <v>-0.08077548993472472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05977631060928161</v>
+        <v>0.04105744514633044</v>
       </c>
       <c r="C88">
-        <v>-0.04934265647186883</v>
+        <v>0.06736941030734986</v>
       </c>
       <c r="D88">
-        <v>0.04411384226527721</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01555010572335223</v>
+      </c>
+      <c r="E88">
+        <v>0.01768055193335972</v>
+      </c>
+      <c r="F88">
+        <v>0.0250969011574184</v>
+      </c>
+      <c r="G88">
+        <v>-0.003039288319211979</v>
+      </c>
+      <c r="H88">
+        <v>0.02067050791210777</v>
+      </c>
+      <c r="I88">
+        <v>0.04904279748259967</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3230638935799751</v>
+        <v>0.3918090656980514</v>
       </c>
       <c r="C89">
-        <v>0.3318666265542718</v>
+        <v>-0.2169281050276497</v>
       </c>
       <c r="D89">
-        <v>0.01592757559671779</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02492057272154868</v>
+      </c>
+      <c r="E89">
+        <v>-0.04648049662758762</v>
+      </c>
+      <c r="F89">
+        <v>0.04040511018526681</v>
+      </c>
+      <c r="G89">
+        <v>0.04845458640475071</v>
+      </c>
+      <c r="H89">
+        <v>0.1676903941707625</v>
+      </c>
+      <c r="I89">
+        <v>-0.3882729258587944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2577259263360874</v>
+        <v>0.3052275850526661</v>
       </c>
       <c r="C90">
-        <v>0.2371564986022347</v>
+        <v>-0.1453225830810293</v>
       </c>
       <c r="D90">
-        <v>0.03444528804458464</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04000481207994217</v>
+      </c>
+      <c r="E90">
+        <v>-0.008763580882029711</v>
+      </c>
+      <c r="F90">
+        <v>-0.01351936621714663</v>
+      </c>
+      <c r="G90">
+        <v>0.05304712459376969</v>
+      </c>
+      <c r="H90">
+        <v>-0.04119813212906654</v>
+      </c>
+      <c r="I90">
+        <v>0.05357155179363406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1557982218122383</v>
+        <v>0.09664219072588169</v>
       </c>
       <c r="C91">
-        <v>-0.1909653357416913</v>
+        <v>0.2109151685735499</v>
       </c>
       <c r="D91">
-        <v>-0.09133435648745096</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09905262595154427</v>
+      </c>
+      <c r="E91">
+        <v>-0.07893872846345136</v>
+      </c>
+      <c r="F91">
+        <v>0.07646162239073316</v>
+      </c>
+      <c r="G91">
+        <v>0.01657394596117883</v>
+      </c>
+      <c r="H91">
+        <v>-0.003846961041250794</v>
+      </c>
+      <c r="I91">
+        <v>0.09457029702889749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2351450505101005</v>
+        <v>0.3115502207740289</v>
       </c>
       <c r="C92">
-        <v>0.2398441733499307</v>
+        <v>-0.1722808275098882</v>
       </c>
       <c r="D92">
-        <v>0.006198164192911839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02743701491287838</v>
+      </c>
+      <c r="E92">
+        <v>-0.09684268810371582</v>
+      </c>
+      <c r="F92">
+        <v>0.04097434672669135</v>
+      </c>
+      <c r="G92">
+        <v>0.0827354640184905</v>
+      </c>
+      <c r="H92">
+        <v>0.02425368846500994</v>
+      </c>
+      <c r="I92">
+        <v>0.05472154782270876</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2857096498484935</v>
+        <v>0.3277301170471961</v>
       </c>
       <c r="C93">
-        <v>0.2541989816324475</v>
+        <v>-0.1559107870248853</v>
       </c>
       <c r="D93">
-        <v>0.02683274320539299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0002373497776250655</v>
+      </c>
+      <c r="E93">
+        <v>0.03669123908891308</v>
+      </c>
+      <c r="F93">
+        <v>0.01691579797656817</v>
+      </c>
+      <c r="G93">
+        <v>-0.02977650571550481</v>
+      </c>
+      <c r="H93">
+        <v>-0.01860659812583669</v>
+      </c>
+      <c r="I93">
+        <v>0.1198143030990556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3020554227431254</v>
+        <v>0.1965257054042527</v>
       </c>
       <c r="C94">
-        <v>-0.2747364340308167</v>
+        <v>0.3459012223203755</v>
       </c>
       <c r="D94">
-        <v>-0.3560659615922546</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3576058280740146</v>
+      </c>
+      <c r="E94">
+        <v>-0.04868170433469095</v>
+      </c>
+      <c r="F94">
+        <v>-0.09073044114307707</v>
+      </c>
+      <c r="G94">
+        <v>0.2673215412422039</v>
+      </c>
+      <c r="H94">
+        <v>-0.114557841702203</v>
+      </c>
+      <c r="I94">
+        <v>-0.3854095104192344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03397433181522788</v>
+        <v>0.02992651077052426</v>
       </c>
       <c r="C95">
-        <v>-0.03865318786446521</v>
+        <v>0.06066921264346466</v>
       </c>
       <c r="D95">
-        <v>0.05801656629573968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09023251122687219</v>
+      </c>
+      <c r="E95">
+        <v>-0.1986920048908932</v>
+      </c>
+      <c r="F95">
+        <v>-0.1997922307156365</v>
+      </c>
+      <c r="G95">
+        <v>-0.1996049985571249</v>
+      </c>
+      <c r="H95">
+        <v>0.451486517022591</v>
+      </c>
+      <c r="I95">
+        <v>-0.5348583921564731</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>9.122304412486444e-06</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>9.570918701941433e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0003127117708211228</v>
+      </c>
+      <c r="E97">
+        <v>0.0002160566437109491</v>
+      </c>
+      <c r="F97">
+        <v>-0.001215841217989876</v>
+      </c>
+      <c r="G97">
+        <v>-0.0008965242793264666</v>
+      </c>
+      <c r="H97">
+        <v>0.0008408877128072107</v>
+      </c>
+      <c r="I97">
+        <v>6.884611652934307e-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1525488202652058</v>
+        <v>0.1265658850215726</v>
       </c>
       <c r="C98">
-        <v>-0.07370714657128873</v>
+        <v>0.1238911281738364</v>
       </c>
       <c r="D98">
-        <v>0.114388059455154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05457575944587427</v>
+      </c>
+      <c r="E98">
+        <v>0.2904010794002173</v>
+      </c>
+      <c r="F98">
+        <v>-0.1453014795735175</v>
+      </c>
+      <c r="G98">
+        <v>-0.2303707184994134</v>
+      </c>
+      <c r="H98">
+        <v>-0.06754009915970874</v>
+      </c>
+      <c r="I98">
+        <v>0.02829804647384503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00344116499719964</v>
+        <v>-0.001626025174369558</v>
       </c>
       <c r="C101">
-        <v>-0.02198609102454225</v>
+        <v>0.02741041073766561</v>
       </c>
       <c r="D101">
-        <v>0.104532581796096</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1050933236830478</v>
+      </c>
+      <c r="E101">
+        <v>0.03068522093529437</v>
+      </c>
+      <c r="F101">
+        <v>0.0314009742572121</v>
+      </c>
+      <c r="G101">
+        <v>0.04828483309294204</v>
+      </c>
+      <c r="H101">
+        <v>0.09982830285080369</v>
+      </c>
+      <c r="I101">
+        <v>0.01937886324201441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1087450739257148</v>
+        <v>0.05848459296187871</v>
       </c>
       <c r="C102">
-        <v>-0.1507975806592576</v>
+        <v>0.1513621268364215</v>
       </c>
       <c r="D102">
-        <v>-0.07670417916079367</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09026968602708804</v>
+      </c>
+      <c r="E102">
+        <v>-0.03227353820141025</v>
+      </c>
+      <c r="F102">
+        <v>-0.05837293434725318</v>
+      </c>
+      <c r="G102">
+        <v>0.005989986471785986</v>
+      </c>
+      <c r="H102">
+        <v>0.05134441910353223</v>
+      </c>
+      <c r="I102">
+        <v>0.02994526774151612</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
